--- a/레벨 디자인 기획서/Dialog(superUpStory).xlsx
+++ b/레벨 디자인 기획서/Dialog(superUpStory).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Game_Projects\2nd_grade\Team7_SupperUp\레벨 디자인 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF5A144-5528-4FBD-91A2-472E3FD2AECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A237099F-C613-42EC-83FB-7976E6D67385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B7D4C63A-AE62-4EA5-A8B0-8B5CFCD5C349}"/>
   </bookViews>
@@ -666,8 +666,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>

--- a/레벨 디자인 기획서/Dialog(superUpStory).xlsx
+++ b/레벨 디자인 기획서/Dialog(superUpStory).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Game_Projects\2nd_grade\Team7_SupperUp\레벨 디자인 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A237099F-C613-42EC-83FB-7976E6D67385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3C86F-7B5F-4C37-B9C5-F8B8610FC0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B7D4C63A-AE62-4EA5-A8B0-8B5CFCD5C349}"/>
   </bookViews>
@@ -39,16 +39,6 @@
     <t>choiceText</t>
   </si>
   <si>
-    <t>1317년, 북대륙 서부에는 중규모의 강국 리온 왕국이 있었고, 동쪽에는 동대륙 경계 지대에 위치한 여섯 개 자치 도시국가의 연합체인 하르카 연합군이 있었다.
-리온 왕국의 애드몬드 3세가 즉위한 후, 젊고 야망 넘치는 그는 리온 왕국을 이끌고 하르카 연합국에 전쟁을 선포하게 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서부의 작은 마을 출신인 주인공은 마을 사람들과 다르지 않은 평범한 삶을 살고 있었다. 그러던 어느 날, 동쪽에서 일어날 전쟁을 위해 일반 병사를 모집 중이라는 소문을 듣게 된다.
-예전부터 그저 그런 인생을 벗어나고 싶었던 주인공은 한밤중에 아무에게도 알리지 않고 여행 짐을 챙기고, 기사를 꿈꾸며 전쟁 준비 중인 전선으로 대담한 여행을 떠난다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이동 중 챙겨온 물을 실수로 떨어뜨린 주인공은, 하루 동안 물 한 모금 마시지 못한 채로 갈증에 시달린다. 물을 찾기 위해 주위를 둘러보던 중 우물을 발견하게 되고, 생각보다 깨끗해 보이는 우물에서 주인공은 망설임 없이 물을 마신다. 오랜만에 마시는 시원한 물 덕분에 상쾌해진 얼굴을 하고, 그는 이 물을 챙길지 고민하기 시작한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -91,16 +81,6 @@
     <t>물이 없던 주인공은 어쩔 수 없다는 듯 조용히 노파를 뒤로하고 길을 떠난다.</t>
   </si>
   <si>
-    <t>바위산 안쪽으로 들어가자, 보물이 숨겨져 있을 법한 수상한 장소가 눈에 들어온다. 
-졸린 정신도 단번에 깨고, 주인공은 서둘러 안쪽을 탐색하기 시작한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠시 후, 드디어 보물상자가 눈에 들어온다. 보물은 틀림없이 그 안에 있을 것이다. 
-주인공은 서둘러 보물상자 앞으로 달려간다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>보물을 챙기지 않는다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -110,13 +90,6 @@
   </si>
   <si>
     <t>주인공은 진심으로 무욕을 실천하며, 이 던전을 클리어한 짜릿함만으로 만족한 채 다시 길을 떠났다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>며칠 뒤, 주인공은 목적지 근처의 작은 마을에 도착한다. 
-며칠 동안 야영만 했던 그는 피로를 씻기 위해 여관으로 서둘러 들어가 하룻밤 묵을 방을 구했다. 
-샤워는 할 수 없었지만, 잠시 몸을 뉘일 수 있는 침대만으로도 충분했다. 
-곧이어 식당과 대장간을 들르기 위해 밖으로 나온다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -125,26 +98,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대장간에서 돌아가는 길, 검은 두건을 쓴 세 사람이 주인공에게 다가온다. 
-짧은 실랑이 끝에 칼이 교차했고, 주인공은 그들을 제압했다. 
-칼끝이 그들 목에 닿은 순간, 그는 죽일지 살릴지 고민한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“남자가 칼을 들었으면 무라도 썰어야 하는 법.”
-주인공은 망설임 없이 강도 무리의 목을 꺾고, 찌르고, 썰었다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비록 자신의 목숨을 노린 자들이었지만, 자비를 아는 주인공은 그들을 살려 보낸다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전쟁이 일어나기 전날 밤, 잠이 오지 않는 밤을 지새우며 주인공은 평소에 하지도 않는 생각에 빠진다. 
-전쟁이 끝나면 어떻게 살 것인지. 진짜 기사가 될 것인지, 고된 훈련과 긴장되는 전장에 있으니 빨리 집으로 돌아가고 싶은지등. 주인공은 자신의 속마음을 직시하게 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">주인공은 서둘러 물병을 꺼내 노파의 입에 가져다 댄다. 노파는 물을 조금씩 마시며 기운을 회복하고, 감사 인사를 전한 후 다시 길을 떠난다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,12 +155,6 @@
   </si>
   <si>
     <t>살아서 집으로 돌아가고 싶다_모두 죽인다_보물을 챙기지 않는다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을에서 확인한 지도에 따르면 5일이면 도착할 거리였지만, 일주일이 지나도 목적지에 도착하지 못한 주인공은 지쳐버린다. 
-그러나 곧 저녁의 차가운 바람과 야생동물을 피하기 위해 묵을 장소를 찾아야 했다. 
-주인공은 바위가 많은 지역 쪽으로 서둘러 발걸음을 옮긴다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -212,68 +163,80 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마을에서 하룻밤을 보내고, 멀고도 먼 여정을 거쳐 마침내 전선에 도착하게 된다. 
-수십 명의 병사들이 훈련 중이었고, 다행히 소문은 사실이었다. 
-주인공은 접수처에서 이름을 말하고 병사로 등록한 뒤, 다가오는 전쟁을 대비해 훈련을 시작한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전선은 이른 새벽부터 짙은 안개에 휩싸여 있었다.
-이슬 맺힌 풀잎 위로 무겁게 깔린 정적은, 폭풍 전의 고요처럼 긴장감으로 뒤덮여 있었다.
-리온 왕국의 병사들은 진흙 속에서도 아랑곳하지 않고 방패를 정렬했고, 기수들이 말을 재촉하며 전열 뒤를 분주히 오갔다.
-나팔소리와 함께 전장은 남성의 함성과 포성, 그리고 무기끼리 부딫히는 소리로 가득차게 되며 전쟁이 시작되었음을 알렸다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔딩 1_검이 없었던 자_지친 몸을 이끌고 집으로 향하던 그의 길 위에, 검은 두건의 무리들이 다시 나타났다. 
-싸움은 필연이었고, 손엔 검 하나 없었다. 
-피로와 상처, 그리고 운명은 그에게 더 이상 시간을 허락하지 않았다. 먼 길 끝, 고향은 코앞이었지만 그는 두 눈을 감고야 말았다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔딩 2_붉은 칼날, 평온한 땅_칼날은 오래되어도, 주인의 뜻을 따랐다. 
-검은 무리를 쓰러뜨리고 그는 피를 흘리며 고향으로 돌아왔다. 
-그 후로 그는 전쟁과 무관한 작은 집에서, 이따금 날을 갈며 살아갔다. 
-더 이상 검을 휘두르지 않아도 되었기에, 그는 웃을 수 있었다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔딩 3_기억되지 않는 삶_전쟁은 끝났고, 마을은 여전히 그 자리에 있었다. 
-누구도 그의 공을 알지 못했고, 그는 그저 돌아와 농사를 지었다. 
-매일 같은 해가 뜨고, 같은 저녁이 지는 삶. 하지만 그것이야말로 그가 진정 바랐던 평화일지 모른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔딩 4_낯선 길의 상인_낯익은 길가, 그곳에 다시 만난 노파는 오래된 인연을 이어주었다. 
-그 인연의 끝에는 뜻밖에도 새로운 길이 있었다. 
-주인공은 고향 대신 무역로를 택했고, 검 대신 저울을 들었다. 
-세상을 도는 상인의 삶. 그 삶 속에서 그는, 드디어 자신을 찾았다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔딩 5_죽고 싶지 않았던 자_그는 외쳤다. "죽고 싶지 않다!" 그러나 전쟁은 이름을 남기지 않는다. 
-누군가는 영웅이 되었고, 누군가는 끝내 돌아오지 못했다. 
-그의 이야기는 여기서 끝났고, 언젠가 누군가가 이 흙 속에서 그의 헬멧을 발견할지도 모른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔딩 6_귀족의 길_수많은 전투 끝, 그는 마침내 왕의 눈에 띄었다.
-그리고, 문득 떠오른 오래전의 보물. 그는 다시 돌아가 그것을 손에 넣고, 왕에게 바쳤다.
-그 충성과 기지는 왕의 마음을 움직였고, 그는 기사보다도 위대한 위치에 오르게 되었다.
-검을 휘두르던 자는 이제, 권력을 지닌 귀족이 되었다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔딩 7_진짜 기사_전쟁은 길었고, 그는 모든 것을 이겨냈다.
-수많은 시련과 피 속에서도 그는 한결같은 결심을 꺾지 않았다.
-그렇게 그는, 진짜 기사가 되었다.
-그 칭호는 보상의 결과가 아닌, 오직 의지의 끝에 주어진 것이었다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식당에서 죽 한 그릇으로 허기를 채운 주인공은 곧장 대장간으로 향한다. 
-장비를 정비하던 중, 벽에 걸려 있는 고급 검이 눈에 띈다. 
-검은 주인공의 여비로는 도저히 살 수 없어 보였지만, 문득 며칠 전의 보물이 떠오른다.</t>
+    <t>1317년, 북대륙 서부에는 중규모의 강국 리온 왕국이 있었고, 동쪽에는 동대륙 경계 지대에 위치한 여섯 개 자치 도시국가의 연합체인 하르카 연합군이 있었다. 리온 왕국의 애드몬드 3세가 즉위한 후, 젊고 야망 넘치는 그는 리온 왕국을 이끌고 하르카 연합국에 전쟁을 선포하게 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서부의 작은 마을 출신인 주인공은 마을 사람들과 다르지 않은 평범한 삶을 살고 있었다. 그러던 어느 날, 동쪽에서 일어날 전쟁을 위해 일반 병사를 모집 중이라는 소문을 듣게 된다. 예전부터 그저 그런 인생을 벗어나고 싶었던 주인공은 한밤중에 아무에게도 알리지 않고 여행 짐을 챙기고, 기사를 꿈꾸며 전쟁 준비 중인 전선으로 대담한 여행을 떠난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을에서 확인한 지도에 따르면 5일이면 도착할 거리였지만, 일주일이 지나도 목적지에 도착하지 못한 주인공은 지쳐버린다. 
+그러나 곧 저녁의 차가운 바람과 야생동물을 피하기 위해 묵을 장소를 찾아야 했다. 주인공은 바위가 많은 지역 쪽으로 서둘러 발걸음을 옮긴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위산 안쪽으로 들어가자, 보물이 숨겨져 있을 법한 수상한 장소가 눈에 들어온다. 졸린 정신도 단번에 깨고, 주인공은 서둘러 안쪽을 탐색하기 시작한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시 후, 드디어 보물상자가 눈에 들어온다. 보물은 틀림없이 그 안에 있을 것이다. 주인공은 서둘러 보물상자 앞으로 달려간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>며칠 뒤, 주인공은 목적지 근처의 작은 마을에 도착한다. 며칠 동안 야영만 했던 그는 피로를 씻기 위해 여관으로 서둘러 들어가 하룻밤 묵을 방을 구했다. 샤워는 할 수 없었지만, 잠시 몸을 뉘일 수 있는 침대만으로도 충분했다. 곧이어 식당과 대장간을 들르기 위해 밖으로 나온다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당에서 죽 한 그릇으로 허기를 채운 주인공은 곧장 대장간으로 향한다. 장비를 정비하던 중, 벽에 걸려 있는 고급 검이 눈에 띈다. 검은 주인공의 여비로는 도저히 살 수 없어 보였지만, 문득 며칠 전의 보물이 떠오른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간에서 돌아가는 길, 검은 두건을 쓴 세 사람이 주인공에게 다가온다. 짧은 실랑이 끝에 칼이 교차했고, 주인공은 그들을 제압했다. 칼끝이 그들 목에 닿은 순간, 그는 죽일지 살릴지 고민한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을에서 하룻밤을 보내고, 멀고도 먼 여정을 거쳐 마침내 전선에 도착하게 된다. 수십 명의 병사들이 훈련 중이었고, 다행히 소문은 사실이었다. 주인공은 접수처에서 이름을 말하고 병사로 등록한 뒤, 다가오는 전쟁을 대비해 훈련을 시작한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전쟁이 일어나기 전날 밤, 잠이 오지 않는 밤을 지새우며 주인공은 평소에 하지도 않는 생각에 빠진다. 전쟁이 끝나면 어떻게 살 것인지. 진짜 기사가 될 것인지, 고된 훈련과 긴장되는 전장에 있으니 빨리 집으로 돌아가고 싶은지등. 주인공은 자신의 속마음을 직시하게 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전선은 이른 새벽부터 짙은 안개에 휩싸여 있었다. 이슬 맺힌 풀잎 위로 무겁게 깔린 정적은, 폭풍 전의 고요처럼 긴장감으로 뒤덮여 있었다. 리온 왕국의 병사들은 진흙 속에서도 아랑곳하지 않고 방패를 정렬했고, 기수들이 말을 재촉하며 전열 뒤를 분주히 오갔다. 나팔소리와 함께 전장은 남성의 함성과 포성, 그리고 무기끼리 부딫히는 소리로 가득차게 되며 전쟁이 시작되었음을 알렸다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“남자가 칼을 들었으면 무라도 썰어야 하는 법.” 주인공은 망설임 없이 강도 무리의 목을 꺾고, 찌르고, 썰었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 1_검이 없었던 자_지친 몸을 이끌고 집으로 향하던 그의 길 위에, 검은 두건의 무리들이 다시 나타났다. 싸움은 필연이었고, 손엔 검 하나 없었다. 피로와 상처, 그리고 운명은 그에게 더 이상 시간을 허락하지 않았다. 먼 길 끝, 고향은 코앞이었지만 그는 두 눈을 감고야 말았다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 2_붉은 칼날, 평온한 땅_칼날은 오래되어도, 주인의 뜻을 따랐다. 검은 무리를 쓰러뜨리고 그는 피를 흘리며 고향으로 돌아왔다. 그 후로 그는 전쟁과 무관한 작은 집에서, 이따금 날을 갈며 살아갔다. 더 이상 검을 휘두르지 않아도 되었기에, 그는 웃을 수 있었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 3_기억되지 않는 삶_전쟁은 끝났고, 마을은 여전히 그 자리에 있었다. 누구도 그의 공을 알지 못했고, 그는 그저 돌아와 농사를 지었다. 매일 같은 해가 뜨고, 같은 저녁이 지는 삶. 하지만 그것이야말로 그가 진정 바랐던 평화일지 모른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 4_낯선 길의 상인_낯익은 길가, 그곳에 다시 만난 노파는 오래된 인연을 이어주었다. 그 인연의 끝에는 뜻밖에도 새로운 길이 있었다. 주인공은 고향 대신 무역로를 택했고, 검 대신 저울을 들었다. 세상을 도는 상인의 삶. 그 삶 속에서 그는, 드디어 자신을 찾았다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 5_죽고 싶지 않았던 자_그는 외쳤다. "죽고 싶지 않다!" 그러나 전쟁은 이름을 남기지 않는다. 누군가는 영웅이 되었고, 누군가는 끝내 돌아오지 못했다. 그의 이야기는 여기서 끝났고, 언젠가 누군가가 이 흙 속에서 그의 헬멧을 발견할지도 모른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 6_귀족의 길_수많은 전투 끝, 그는 마침내 왕의 눈에 띄었다. 그리고, 문득 떠오른 오래전의 보물. 그는 다시 돌아가 그것을 손에 넣고, 왕에게 바쳤다. 그 충성과 기지는 왕의 마음을 움직였고, 그는 기사보다도 위대한 위치에 오르게 되었다. 검을 휘두르던 자는 이제, 권력을 지닌 귀족이 되었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 7_진짜 기사_전쟁은 길었고, 그는 모든 것을 이겨냈다. 수많은 시련과 피 속에서도 그는 한결같은 결심을 꺾지 않았다. 그렇게 그는, 진짜 기사가 되었다. 그 칭호는 보상의 결과가 아닌, 오직 의지의 끝에 주어진 것이었다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,9 +304,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -666,8 +626,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -696,16 +656,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.4">
@@ -713,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -728,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -743,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>-1</v>
@@ -758,7 +718,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>101</v>
@@ -771,7 +731,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <v>102</v>
@@ -784,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>-2</v>
@@ -801,10 +761,10 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -817,10 +777,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -831,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
@@ -841,12 +801,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -856,12 +816,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>-1</v>
@@ -876,7 +836,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1">
         <v>103</v>
@@ -889,7 +849,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
         <v>104</v>
@@ -897,12 +857,12 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -912,12 +872,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1">
         <v>-2</v>
@@ -930,10 +890,10 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -945,21 +905,21 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1">
         <v>-1</v>
@@ -974,7 +934,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1">
         <v>105</v>
@@ -987,7 +947,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1">
         <v>106</v>
@@ -995,12 +955,12 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>12</v>
@@ -1015,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1">
         <v>-1</v>
@@ -1030,7 +990,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1">
         <v>-1</v>
@@ -1043,7 +1003,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1">
         <v>-1</v>
@@ -1056,7 +1016,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1">
         <v>-1</v>
@@ -1064,7 +1024,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>13</v>
       </c>
@@ -1093,7 +1053,7 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1104,7 +1064,7 @@
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1118,7 +1078,7 @@
         <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -1129,7 +1089,7 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -1142,8 +1102,8 @@
       <c r="A33">
         <v>105</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>25</v>
+      <c r="B33" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C33">
         <v>11</v>
@@ -1157,7 +1117,7 @@
         <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -1180,28 +1140,28 @@
         <v>201</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="87" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>202</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1210,13 +1170,13 @@
         <v>203</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1225,58 +1185,58 @@
         <v>204</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="87" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>205</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="87" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>206</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="87" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>207</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1608,7 +1568,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B90" s="5"/>
+      <c r="B90" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
